--- a/Document/아이템 기획서.xlsx
+++ b/Document/아이템 기획서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>아이템 기획서 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -172,10 +168,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 아이템의 수집과 기능에 관한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 얻기위해선 숨겨진 위치나 히든 장소를 클리어 해야합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,11 +234,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
+    <t>2019.04.15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019.04.15</t>
+    <t>아이템 획득 전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 획득해야하는 아이템의 개수는 UI 로 표시합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 아이템의 수집에 관한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모아야 하는 개수는 왼쪽 위에 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 획득 아이템 정보를 가운데 상단에 표시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,9 +430,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1121,15 +1126,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2905125</xdr:colOff>
+      <xdr:colOff>3028950</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3514725</xdr:colOff>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1138,7 +1143,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="4886325"/>
+          <a:off x="7762875" y="4905375"/>
           <a:ext cx="609600" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,7 +1183,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>충돌</a:t>
+            <a:t>획득</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
@@ -1332,6 +1337,260 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3048001</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3352800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>94384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="번개 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476626" y="3552825"/>
+          <a:ext cx="304799" cy="332509"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3019424</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4019549</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448049" y="3524250"/>
+          <a:ext cx="1000125" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  0/1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3286126</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3590925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="번개 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020051" y="3514725"/>
+          <a:ext cx="304799" cy="332509"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3267074</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4267199</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8000999" y="3486150"/>
+          <a:ext cx="1000125" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  1/1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2196,6 +2455,199 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3552825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="3667125"/>
+          <a:ext cx="2524125" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>대상 이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>설명 내용</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="3724275"/>
+          <a:ext cx="485775" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="85725"/>
+          <a:ext cx="10039350" cy="6496050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="6000"/>
+            <a:t>협의중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="6000"/>
+            <a:t>....</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="6000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2469,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2496,7 +2948,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -2571,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2584,7 +3036,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -2594,12 +3046,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -2608,86 +3060,90 @@
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>25</v>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2703,7 +3159,7 @@
   <dimension ref="B2:C30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2715,7 +3171,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -2725,12 +3181,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -2739,88 +3195,88 @@
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>12</v>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
